--- a/Experiment_results/xlsx_format/ex_uni_all_Lagplug.xlsx
+++ b/Experiment_results/xlsx_format/ex_uni_all_Lagplug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FE6559-35B2-4231-9CFF-DA93053D2EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472A7C0-1783-4E5B-A17F-A28606D89A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="733">
   <si>
     <t>ETTh1</t>
   </si>
@@ -633,9 +633,6 @@
     <t>0.0003</t>
   </si>
   <si>
-    <t>0.0008</t>
-  </si>
-  <si>
     <t>0.350</t>
   </si>
   <si>
@@ -687,15 +684,9 @@
     <t>0.143</t>
   </si>
   <si>
-    <t>0.498</t>
-  </si>
-  <si>
     <t>0.831</t>
   </si>
   <si>
-    <t>1.286</t>
-  </si>
-  <si>
     <t>0.170</t>
   </si>
   <si>
@@ -837,9 +828,6 @@
     <t>0.012</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
     <t>0.510</t>
   </si>
   <si>
@@ -897,9 +885,6 @@
     <t>1.676</t>
   </si>
   <si>
-    <t>0.0009</t>
-  </si>
-  <si>
     <t>0.543</t>
   </si>
   <si>
@@ -2245,6 +2230,9 @@
   </si>
   <si>
     <t>0.412</t>
+  </si>
+  <si>
+    <t>1.291</t>
   </si>
 </sst>
 </file>
@@ -2574,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6080771B-968D-4139-AF07-E0D46FA87262}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G87" sqref="G1:S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,49 +2597,49 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" t="s">
         <v>538</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>539</v>
       </c>
-      <c r="I1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J1" t="s">
-        <v>541</v>
-      </c>
-      <c r="K1" t="s">
-        <v>680</v>
-      </c>
-      <c r="L1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M1" t="s">
-        <v>408</v>
-      </c>
-      <c r="N1" t="s">
-        <v>537</v>
-      </c>
-      <c r="O1" t="s">
-        <v>406</v>
-      </c>
-      <c r="P1" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>543</v>
-      </c>
-      <c r="R1" t="s">
-        <v>544</v>
-      </c>
       <c r="S1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2668,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F2" t="s">
         <v>138</v>
@@ -2677,40 +2665,40 @@
         <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="R2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="S2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2727,31 +2715,31 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L3" t="s">
         <v>164</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N3" t="s">
         <v>118</v>
@@ -2760,16 +2748,16 @@
         <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="R3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="S3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2786,7 +2774,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
         <v>139</v>
@@ -2795,22 +2783,22 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
         <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N4" t="s">
         <v>70</v>
@@ -2819,13 +2807,13 @@
         <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q4" t="s">
         <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="S4" t="s">
         <v>46</v>
@@ -2845,7 +2833,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
         <v>140</v>
@@ -2854,28 +2842,28 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
         <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N5" t="s">
         <v>161</v>
       </c>
       <c r="O5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P5" t="s">
         <v>112</v>
@@ -2884,10 +2872,10 @@
         <v>183</v>
       </c>
       <c r="R5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="S5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2904,7 +2892,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F6" t="s">
         <v>141</v>
@@ -2913,25 +2901,25 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K6" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O6" t="s">
         <v>85</v>
@@ -2943,10 +2931,10 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2963,7 +2951,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F7" t="s">
         <v>142</v>
@@ -2972,13 +2960,13 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
         <v>122</v>
@@ -2987,13 +2975,13 @@
         <v>70</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" t="s">
         <v>170</v>
       </c>
       <c r="O7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P7" t="s">
         <v>123</v>
@@ -3002,10 +2990,10 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -3022,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
         <v>143</v>
@@ -3031,40 +3019,40 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J8" t="s">
         <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P8" t="s">
         <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R8" t="s">
         <v>163</v>
       </c>
       <c r="S8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -3081,7 +3069,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F9" t="s">
         <v>144</v>
@@ -3090,40 +3078,40 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L9" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="S9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3140,7 +3128,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F10" t="s">
         <v>145</v>
@@ -3155,31 +3143,31 @@
         <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O10" t="s">
         <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="S10" t="s">
         <v>129</v>
@@ -3199,7 +3187,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F11" t="s">
         <v>146</v>
@@ -3208,40 +3196,40 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I11" t="s">
         <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N11" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="R11" t="s">
         <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3258,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
         <v>147</v>
@@ -3267,37 +3255,37 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I12" t="s">
         <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K12" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L12" t="s">
         <v>81</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N12" t="s">
         <v>172</v>
       </c>
       <c r="O12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="R12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S12" t="s">
         <v>89</v>
@@ -3317,7 +3305,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F13" t="s">
         <v>148</v>
@@ -3326,40 +3314,40 @@
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K13" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L13" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="N13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="O13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q13" t="s">
         <v>82</v>
       </c>
       <c r="R13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S13" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3376,7 +3364,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F14" t="s">
         <v>149</v>
@@ -3385,40 +3373,40 @@
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K14" t="s">
         <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="N14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S14" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3435,7 +3423,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F15" t="s">
         <v>150</v>
@@ -3444,37 +3432,37 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" t="s">
         <v>212</v>
       </c>
-      <c r="I15" t="s">
-        <v>213</v>
-      </c>
       <c r="J15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K15" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="L15" t="s">
         <v>169</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N15" t="s">
         <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="R15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="S15" t="s">
         <v>60</v>
@@ -3494,7 +3482,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F16" t="s">
         <v>151</v>
@@ -3509,31 +3497,31 @@
         <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O16" t="s">
         <v>61</v>
       </c>
       <c r="P16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="R16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="S16" t="s">
         <v>85</v>
@@ -3553,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F17" t="s">
         <v>152</v>
@@ -3562,40 +3550,40 @@
         <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J17" t="s">
         <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L17" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N17" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O17" t="s">
         <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="R17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="S17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3612,7 +3600,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
         <v>153</v>
@@ -3621,22 +3609,22 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I18" t="s">
         <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K18" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="L18" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N18" t="s">
         <v>60</v>
@@ -3645,16 +3633,16 @@
         <v>164</v>
       </c>
       <c r="P18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q18" t="s">
         <v>169</v>
       </c>
       <c r="R18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S18" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3671,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
         <v>154</v>
@@ -3686,22 +3674,22 @@
         <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K19" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="L19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
@@ -3730,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F20" t="s">
         <v>155</v>
@@ -3745,31 +3733,31 @@
         <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N20" t="s">
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S20" t="s">
         <v>76</v>
@@ -3789,7 +3777,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F21" t="s">
         <v>156</v>
@@ -3798,40 +3786,40 @@
         <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="N21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="R21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S21" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3848,7 +3836,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F22" t="s">
         <v>157</v>
@@ -3857,37 +3845,37 @@
         <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K22" t="s">
         <v>73</v>
       </c>
       <c r="L22" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="R22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S22" t="s">
         <v>90</v>
@@ -3913,28 +3901,28 @@
         <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>610</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
         <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L23" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N23" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O23" t="s">
         <v>181</v>
@@ -3943,13 +3931,13 @@
         <v>161</v>
       </c>
       <c r="Q23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="R23" t="s">
         <v>73</v>
       </c>
       <c r="S23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -3975,34 +3963,34 @@
         <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K24" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="L24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N24" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O24" t="s">
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q24" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="R24" t="s">
         <v>75</v>
@@ -4025,7 +4013,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F25" t="s">
         <v>159</v>
@@ -4034,40 +4022,40 @@
         <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K25" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L25" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N25" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O25" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P25" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="R25" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="S25" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -4084,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F26" t="s">
         <v>160</v>
@@ -4093,40 +4081,40 @@
         <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>732</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K26" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="L26" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="N26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P26" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q26" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="R26" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="S26" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -4143,7 +4131,7 @@
         <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G27" t="s">
         <v>160</v>
@@ -4152,19 +4140,19 @@
         <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="L27" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="N27" t="s">
         <v>179</v>
@@ -4173,16 +4161,16 @@
         <v>179</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q27" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="R27" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="S27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -4199,19 +4187,19 @@
         <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G28" t="s">
         <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K28" t="s">
         <v>77</v>
@@ -4226,19 +4214,19 @@
         <v>127</v>
       </c>
       <c r="O28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q28" t="s">
         <v>128</v>
       </c>
       <c r="R28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -4255,28 +4243,28 @@
         <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G29" t="s">
         <v>196</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I29" t="s">
         <v>180</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L29" t="s">
         <v>182</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="N29" t="s">
         <v>182</v>
@@ -4311,19 +4299,19 @@
         <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G30" t="s">
         <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
         <v>182</v>
@@ -4332,7 +4320,7 @@
         <v>91</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N30" t="s">
         <v>91</v>
@@ -4367,46 +4355,46 @@
         <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G31" t="s">
         <v>197</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I31" t="s">
         <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
         <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O31" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P31" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q31" t="s">
         <v>87</v>
       </c>
       <c r="R31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="S31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -4432,40 +4420,40 @@
         <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="N32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O32" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q32" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="R32" t="s">
         <v>100</v>
       </c>
       <c r="S32" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -4491,40 +4479,40 @@
         <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L33" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N33" t="s">
         <v>97</v>
       </c>
       <c r="O33" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="R33" t="s">
         <v>96</v>
       </c>
       <c r="S33" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -4550,40 +4538,40 @@
         <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L34" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O34" t="s">
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q34" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="R34" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S34" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -4609,40 +4597,40 @@
         <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L35" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O35" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q35" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="R35" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="S35" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -4650,7 +4638,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -4662,37 +4650,37 @@
         <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J36" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K36" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L36" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s">
         <v>174</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R36" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="S36" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -4700,49 +4688,49 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J37" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K37" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="L37" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N37" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P37" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q37" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="R37" t="s">
         <v>104</v>
       </c>
       <c r="S37" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -4750,49 +4738,49 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H38" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="I38" t="s">
         <v>109</v>
       </c>
       <c r="J38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K38" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="L38" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="N38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="O38" t="s">
         <v>181</v>
       </c>
       <c r="P38" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q38" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="R38" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S38" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -4800,49 +4788,49 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H39" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I39" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J39" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K39" t="s">
         <v>13</v>
       </c>
       <c r="L39" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N39" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O39" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="P39" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Q39" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="R39" t="s">
         <v>108</v>
       </c>
       <c r="S39" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -4850,49 +4838,49 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I40" t="s">
         <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K40" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L40" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="N40" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O40" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P40" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Q40" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="R40" t="s">
         <v>164</v>
       </c>
       <c r="S40" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -4900,37 +4888,37 @@
         <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H41" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K41" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>
@@ -4939,10 +4927,10 @@
         <v>30</v>
       </c>
       <c r="R41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -4950,49 +4938,49 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H42" t="s">
         <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J42" t="s">
         <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L42" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N42" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="O42" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P42" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q42" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="R42" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="S42" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -5000,49 +4988,49 @@
         <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="G43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" t="s">
+        <v>372</v>
+      </c>
+      <c r="I43" t="s">
         <v>313</v>
       </c>
-      <c r="H43" t="s">
-        <v>377</v>
-      </c>
-      <c r="I43" t="s">
-        <v>318</v>
-      </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K43" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L43" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
         <v>121</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q43" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="R43" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="S43" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -5050,49 +5038,49 @@
         <v>720</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
         <v>115</v>
       </c>
       <c r="K44" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L44" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="N44" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O44" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q44" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="R44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="S44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -5109,7 +5097,7 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F45" t="s">
         <v>138</v>
@@ -5118,13 +5106,13 @@
         <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I45" t="s">
         <v>197</v>
       </c>
       <c r="J45" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
         <v>78</v>
@@ -5133,7 +5121,7 @@
         <v>182</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N45" t="s">
         <v>182</v>
@@ -5145,7 +5133,7 @@
         <v>180</v>
       </c>
       <c r="Q45" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="R45" t="s">
         <v>128</v>
@@ -5168,10 +5156,10 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G46" t="s">
         <v>78</v>
@@ -5183,19 +5171,19 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K46" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s">
         <v>53</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N46" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s">
         <v>88</v>
@@ -5207,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="S46" t="s">
         <v>80</v>
@@ -5227,7 +5215,7 @@
         <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
@@ -5236,37 +5224,37 @@
         <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J47" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K47" t="s">
         <v>126</v>
       </c>
       <c r="L47" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N47" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O47" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q47" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R47" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="S47" t="s">
         <v>92</v>
@@ -5286,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F48" t="s">
         <v>140</v>
@@ -5295,22 +5283,22 @@
         <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J48" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L48" t="s">
         <v>173</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s">
         <v>173</v>
@@ -5319,7 +5307,7 @@
         <v>81</v>
       </c>
       <c r="P48" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q48" t="s">
         <v>173</v>
@@ -5328,7 +5316,7 @@
         <v>89</v>
       </c>
       <c r="S48" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -5345,7 +5333,7 @@
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F49" t="s">
         <v>141</v>
@@ -5354,40 +5342,40 @@
         <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I49" t="s">
         <v>166</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K49" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L49" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N49" t="s">
         <v>56</v>
       </c>
       <c r="O49" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P49" t="s">
         <v>89</v>
       </c>
       <c r="Q49" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="R49" t="s">
         <v>173</v>
       </c>
       <c r="S49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -5404,7 +5392,7 @@
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F50" t="s">
         <v>142</v>
@@ -5413,40 +5401,40 @@
         <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I50" t="s">
         <v>167</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K50" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="N50" t="s">
         <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P50" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q50" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R50" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S50" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -5463,7 +5451,7 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F51" t="s">
         <v>143</v>
@@ -5472,16 +5460,16 @@
         <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J51" t="s">
         <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L51" t="s">
         <v>168</v>
@@ -5490,22 +5478,22 @@
         <v>107</v>
       </c>
       <c r="N51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O51" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s">
         <v>58</v>
       </c>
       <c r="Q51" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="R51" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="S51" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -5522,7 +5510,7 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F52" t="s">
         <v>144</v>
@@ -5534,37 +5522,37 @@
         <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J52" t="s">
         <v>111</v>
       </c>
       <c r="K52" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L52" t="s">
         <v>118</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N52" t="s">
         <v>164</v>
       </c>
       <c r="O52" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P52" t="s">
         <v>118</v>
       </c>
       <c r="Q52" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="R52" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S52" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -5581,7 +5569,7 @@
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F53" t="s">
         <v>145</v>
@@ -5599,31 +5587,31 @@
         <v>34</v>
       </c>
       <c r="K53" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="N53" t="s">
         <v>73</v>
       </c>
       <c r="O53" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P53" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q53" t="s">
         <v>118</v>
       </c>
       <c r="R53" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S53" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -5640,7 +5628,7 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F54" t="s">
         <v>146</v>
@@ -5649,22 +5637,22 @@
         <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J54" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K54" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L54" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N54" t="s">
         <v>124</v>
@@ -5676,13 +5664,13 @@
         <v>169</v>
       </c>
       <c r="Q54" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="R54" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="S54" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -5699,7 +5687,7 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F55" t="s">
         <v>147</v>
@@ -5720,28 +5708,28 @@
         <v>128</v>
       </c>
       <c r="L55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N55" t="s">
         <v>86</v>
       </c>
       <c r="O55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="R55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -5758,7 +5746,7 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F56" t="s">
         <v>148</v>
@@ -5767,25 +5755,25 @@
         <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I56" t="s">
         <v>182</v>
       </c>
       <c r="J56" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N56" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
         <v>180</v>
@@ -5800,7 +5788,7 @@
         <v>180</v>
       </c>
       <c r="S56" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -5817,7 +5805,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F57" t="s">
         <v>149</v>
@@ -5829,37 +5817,37 @@
         <v>121</v>
       </c>
       <c r="I57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J57" t="s">
         <v>65</v>
       </c>
       <c r="K57" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L57" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N57" t="s">
         <v>171</v>
       </c>
       <c r="O57" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P57" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q57" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="R57" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S57" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -5876,7 +5864,7 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F58" t="s">
         <v>150</v>
@@ -5888,7 +5876,7 @@
         <v>178</v>
       </c>
       <c r="I58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J58" t="s">
         <v>122</v>
@@ -5897,25 +5885,25 @@
         <v>176</v>
       </c>
       <c r="L58" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="N58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O58" t="s">
         <v>78</v>
       </c>
       <c r="P58" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q58" t="s">
         <v>78</v>
       </c>
       <c r="R58" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="S58" t="s">
         <v>176</v>
@@ -5935,7 +5923,7 @@
         <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F59" t="s">
         <v>151</v>
@@ -5944,37 +5932,37 @@
         <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J59" t="s">
         <v>107</v>
       </c>
       <c r="K59" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L59" t="s">
         <v>67</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N59" t="s">
         <v>172</v>
       </c>
       <c r="O59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P59" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q59" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="R59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S59" t="s">
         <v>173</v>
@@ -5994,7 +5982,7 @@
         <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F60" t="s">
         <v>152</v>
@@ -6006,13 +5994,13 @@
         <v>126</v>
       </c>
       <c r="I60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
       </c>
       <c r="K60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L60" t="s">
         <v>197</v>
@@ -6027,10 +6015,10 @@
         <v>179</v>
       </c>
       <c r="P60" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q60" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="R60" t="s">
         <v>180</v>
@@ -6053,7 +6041,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F61" t="s">
         <v>153</v>
@@ -6062,40 +6050,40 @@
         <v>92</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I61" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J61" t="s">
+        <v>321</v>
+      </c>
+      <c r="K61" t="s">
         <v>326</v>
       </c>
-      <c r="K61" t="s">
-        <v>331</v>
-      </c>
       <c r="L61" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N61" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O61" t="s">
         <v>176</v>
       </c>
       <c r="P61" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q61" t="s">
         <v>176</v>
       </c>
       <c r="R61" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S61" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -6112,7 +6100,7 @@
         <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
         <v>154</v>
@@ -6121,40 +6109,40 @@
         <v>93</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I62" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J62" t="s">
         <v>114</v>
       </c>
       <c r="K62" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O62" t="s">
         <v>56</v>
       </c>
       <c r="P62" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q62" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="R62" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="S62" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -6171,7 +6159,7 @@
         <v>51</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F63" t="s">
         <v>155</v>
@@ -6180,22 +6168,22 @@
         <v>94</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J63" t="s">
         <v>174</v>
       </c>
       <c r="K63" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L63" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N63" t="s">
         <v>168</v>
@@ -6204,7 +6192,7 @@
         <v>72</v>
       </c>
       <c r="P63" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q63" t="s">
         <v>82</v>
@@ -6213,7 +6201,7 @@
         <v>72</v>
       </c>
       <c r="S63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -6230,7 +6218,7 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F64" t="s">
         <v>156</v>
@@ -6239,37 +6227,37 @@
         <v>95</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I64" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K64" t="s">
         <v>174</v>
       </c>
       <c r="L64" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N64" t="s">
         <v>123</v>
       </c>
       <c r="O64" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P64" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q64" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="R64" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="S64" t="s">
         <v>65</v>
@@ -6301,37 +6289,37 @@
         <v>87</v>
       </c>
       <c r="I65" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J65" t="s">
         <v>87</v>
       </c>
       <c r="K65" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L65" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>79</v>
       </c>
       <c r="N65" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O65" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P65" t="s">
         <v>180</v>
       </c>
       <c r="Q65" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="R65" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S65" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -6357,34 +6345,34 @@
         <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J66" t="s">
         <v>68</v>
       </c>
       <c r="K66" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L66" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N66" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O66" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P66" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q66" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R66" t="s">
         <v>173</v>
@@ -6419,37 +6407,37 @@
         <v>109</v>
       </c>
       <c r="I67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J67" t="s">
         <v>121</v>
       </c>
       <c r="K67" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L67" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N67" t="s">
         <v>114</v>
       </c>
       <c r="O67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P67" t="s">
         <v>70</v>
       </c>
       <c r="Q67" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="R67" t="s">
         <v>94</v>
       </c>
       <c r="S67" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -6466,7 +6454,7 @@
         <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F68" t="s">
         <v>159</v>
@@ -6475,40 +6463,40 @@
         <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I68" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J68" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K68" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="N68" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O68" t="s">
         <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q68" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="R68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -6534,40 +6522,40 @@
         <v>134</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J69" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K69" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L69" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N69" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O69" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P69" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q69" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="R69" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="S69" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -6584,7 +6572,7 @@
         <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G70" t="s">
         <v>198</v>
@@ -6596,7 +6584,7 @@
         <v>198</v>
       </c>
       <c r="J70" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K70" t="s">
         <v>184</v>
@@ -6605,7 +6593,7 @@
         <v>184</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N70" t="s">
         <v>184</v>
@@ -6640,19 +6628,19 @@
         <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I71" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="J71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K71" t="s">
         <v>184</v>
@@ -6661,7 +6649,7 @@
         <v>184</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N71" t="s">
         <v>159</v>
@@ -6696,7 +6684,7 @@
         <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G72" t="s">
         <v>184</v>
@@ -6708,7 +6696,7 @@
         <v>184</v>
       </c>
       <c r="J72" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K72" t="s">
         <v>159</v>
@@ -6717,7 +6705,7 @@
         <v>159</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N72" t="s">
         <v>159</v>
@@ -6752,19 +6740,19 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G73" t="s">
         <v>184</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
         <v>159</v>
       </c>
       <c r="J73" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K73" t="s">
         <v>159</v>
@@ -6773,7 +6761,7 @@
         <v>159</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N73" t="s">
         <v>159</v>
@@ -6808,19 +6796,19 @@
         <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G74" t="s">
         <v>159</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I74" t="s">
         <v>159</v>
       </c>
       <c r="J74" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K74" t="s">
         <v>159</v>
@@ -6829,7 +6817,7 @@
         <v>159</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N74" t="s">
         <v>159</v>
@@ -6873,40 +6861,40 @@
         <v>100</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J75" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K75" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L75" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N75" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O75" t="s">
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q75" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="R75" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="S75" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -6932,40 +6920,40 @@
         <v>101</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K76" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L76" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="N76" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O76" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P76" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q76" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="R76" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="S76" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -6991,40 +6979,40 @@
         <v>102</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J77" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K77" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L77" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N77" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O77" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P77" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q77" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R77" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="S77" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -7050,40 +7038,40 @@
         <v>103</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I78" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J78" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K78" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L78" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N78" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O78" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P78" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q78" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="R78" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="S78" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -7091,49 +7079,49 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H79" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I79" t="s">
         <v>32</v>
       </c>
       <c r="J79" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K79" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="L79" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N79" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="O79" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P79" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q79" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="R79" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="S79" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -7141,49 +7129,49 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H80" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J80" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K80" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="L80" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="N80" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="O80" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="P80" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="Q80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R80" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S80" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -7191,49 +7179,49 @@
         <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H81" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J81" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K81" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="L81" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="N81" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O81" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P81" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q81" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="R81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S81" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -7241,49 +7229,49 @@
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I82" t="s">
         <v>76</v>
       </c>
       <c r="J82" t="s">
+        <v>595</v>
+      </c>
+      <c r="K82" t="s">
+        <v>723</v>
+      </c>
+      <c r="L82" t="s">
+        <v>724</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="N82" t="s">
+        <v>642</v>
+      </c>
+      <c r="O82" t="s">
+        <v>301</v>
+      </c>
+      <c r="P82" t="s">
         <v>600</v>
       </c>
-      <c r="K82" t="s">
-        <v>728</v>
-      </c>
-      <c r="L82" t="s">
-        <v>729</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="N82" t="s">
-        <v>647</v>
-      </c>
-      <c r="O82" t="s">
-        <v>306</v>
-      </c>
-      <c r="P82" t="s">
-        <v>605</v>
-      </c>
       <c r="Q82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="R82" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S82" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -7291,49 +7279,49 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H83" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I83" t="s">
         <v>88</v>
       </c>
       <c r="J83" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K83" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L83" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N83" t="s">
         <v>168</v>
       </c>
       <c r="O83" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P83" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q83" t="s">
         <v>54</v>
       </c>
       <c r="R83" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="S83" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -7341,49 +7329,49 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H84" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I84" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J84" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K84" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="N84" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q84" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="R84" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="S84" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -7391,49 +7379,49 @@
         <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I85" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J85" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K85" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L85" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N85" t="s">
         <v>94</v>
       </c>
       <c r="O85" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P85" t="s">
         <v>110</v>
       </c>
       <c r="Q85" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="R85" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="S85" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -7441,7 +7429,7 @@
         <v>336</v>
       </c>
       <c r="B86" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -7450,40 +7438,40 @@
         <v>110</v>
       </c>
       <c r="H86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I86" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J86" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="K86" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L86" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N86" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P86" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q86" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="R86" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="S86" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -7491,49 +7479,49 @@
         <v>720</v>
       </c>
       <c r="B87" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H87" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I87" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J87" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K87" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L87" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="N87" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="O87" t="s">
         <v>181</v>
       </c>
       <c r="P87" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q87" t="s">
         <v>45</v>
       </c>
       <c r="R87" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="S87" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
